--- a/product_data/processing_metadata/C2/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C2/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE.v0/processing_metadata/C2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{32650595-DAB2-49EA-99DA-A667E6C4D4E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{440CA53C-4CCA-43F1-A91B-BE76E209AA1F}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{32650595-DAB2-49EA-99DA-A667E6C4D4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47C2157-2EC5-43DE-A8AA-AE3B43094D4B}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="670" windowWidth="19040" windowHeight="10130" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="293">
   <si>
     <t>file_type</t>
   </si>
@@ -829,6 +829,90 @@
   </si>
   <si>
     <t>E:/Data_downloads/JGOFS/320619970113/all_ctd</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>09AR20010101_prof</t>
+  </si>
+  <si>
+    <t>09AR20011029_prof</t>
+  </si>
+  <si>
+    <t>09AR20030103_prof</t>
+  </si>
+  <si>
+    <t>09AR20060102_prof</t>
+  </si>
+  <si>
+    <t>09AR20070116_prof</t>
+  </si>
+  <si>
+    <t>09AR20080323_prof</t>
+  </si>
+  <si>
+    <t>09AR20160111_prof</t>
+  </si>
+  <si>
+    <t>09SS19951115_prof</t>
+  </si>
+  <si>
+    <t>09SS19960416_prof</t>
+  </si>
+  <si>
+    <t>09SS19960513_prof</t>
+  </si>
+  <si>
+    <t>09SS19961120_prof</t>
+  </si>
+  <si>
+    <t>09SS19990206_prof</t>
+  </si>
+  <si>
+    <t>09SS20040120_prof</t>
+  </si>
+  <si>
+    <t>09SS20040723_prof</t>
+  </si>
+  <si>
+    <t>09SS20050721_prof</t>
+  </si>
+  <si>
+    <t>09SS20051118_prof</t>
+  </si>
+  <si>
+    <t>09SS20100730_prof</t>
+  </si>
+  <si>
+    <t>09SS20101015_prof</t>
+  </si>
+  <si>
+    <t>09SS20120811_prof</t>
+  </si>
+  <si>
+    <t>09SS20120907_prof</t>
+  </si>
+  <si>
+    <t>PAL-LTER_prof</t>
+  </si>
+  <si>
+    <t>320619961002_prof</t>
+  </si>
+  <si>
+    <t>320619970113_prof</t>
+  </si>
+  <si>
+    <t>09AR20020126_prof</t>
+  </si>
+  <si>
+    <t>09AR20041223_prof</t>
+  </si>
+  <si>
+    <t>09AR20110104_prof</t>
+  </si>
+  <si>
+    <t>09AR20120105_prof</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2DCEF4-052E-4590-A121-F67F1E7CF4E2}">
-  <dimension ref="A1:BA28"/>
+  <dimension ref="A1:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1191,7 +1275,7 @@
     <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1226,133 +1310,136 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1380,86 +1467,89 @@
       <c r="I2" t="s">
         <v>87</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L2" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" t="s">
         <v>88</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>156</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>90</v>
       </c>
-      <c r="R2" t="s">
-        <v>91</v>
-      </c>
       <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" t="s">
         <v>92</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>93</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>94</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>95</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>96</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" t="s">
-        <v>91</v>
-      </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA2" t="s">
         <v>98</v>
       </c>
       <c r="AB2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="s">
         <v>99</v>
       </c>
       <c r="AD2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE2" t="s">
         <v>100</v>
       </c>
       <c r="AF2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" t="s">
         <v>101</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>102</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>103</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>104</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>105</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>106</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>107</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1487,86 +1577,89 @@
       <c r="I3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N3" t="s">
         <v>88</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>156</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>90</v>
       </c>
-      <c r="R3" t="s">
-        <v>91</v>
-      </c>
       <c r="S3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
         <v>92</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>93</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>94</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>95</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>96</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
-        <v>91</v>
-      </c>
       <c r="Z3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA3" t="s">
         <v>98</v>
       </c>
       <c r="AB3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC3" t="s">
         <v>99</v>
       </c>
       <c r="AD3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE3" t="s">
         <v>100</v>
       </c>
       <c r="AF3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG3" t="s">
         <v>101</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>102</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>103</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>104</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>105</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>106</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>107</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1597,84 +1690,84 @@
       <c r="J4" t="s">
         <v>115</v>
       </c>
-      <c r="M4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="L4" t="s">
+        <v>289</v>
+      </c>
+      <c r="N4" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" t="s">
-        <v>91</v>
-      </c>
       <c r="Q4" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" t="s">
         <v>116</v>
       </c>
-      <c r="R4" t="s">
-        <v>91</v>
-      </c>
       <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
         <v>117</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>118</v>
       </c>
-      <c r="U4" t="s">
-        <v>91</v>
-      </c>
       <c r="V4" t="s">
         <v>91</v>
       </c>
       <c r="W4" t="s">
+        <v>91</v>
+      </c>
+      <c r="X4" t="s">
         <v>119</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>120</v>
       </c>
-      <c r="Y4" t="s">
-        <v>91</v>
-      </c>
       <c r="Z4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="AA4" t="s">
         <v>121</v>
       </c>
       <c r="AB4" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="AC4" t="s">
         <v>91</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AD4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" t="s">
         <v>101</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>102</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>103</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>104</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>105</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>106</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>107</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>122</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>123</v>
       </c>
-      <c r="AO4" t="s">
-        <v>91</v>
-      </c>
       <c r="AP4" t="s">
         <v>91</v>
       </c>
@@ -1703,16 +1796,19 @@
         <v>91</v>
       </c>
       <c r="AY4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>124</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>91</v>
-      </c>
       <c r="BA4" t="s">
         <v>91</v>
       </c>
+      <c r="BB4" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1740,95 +1836,98 @@
       <c r="I5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>268</v>
+      </c>
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-9</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>89</v>
       </c>
-      <c r="P5" t="s">
-        <v>91</v>
-      </c>
       <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" t="s">
         <v>90</v>
       </c>
-      <c r="R5" t="s">
-        <v>91</v>
-      </c>
       <c r="S5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" t="s">
         <v>92</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>118</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>94</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>95</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>96</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>126</v>
       </c>
-      <c r="Y5" t="s">
-        <v>91</v>
-      </c>
       <c r="Z5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA5" t="s">
         <v>98</v>
       </c>
       <c r="AB5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC5" t="s">
         <v>99</v>
       </c>
       <c r="AD5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE5" t="s">
         <v>100</v>
       </c>
       <c r="AF5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG5" t="s">
         <v>101</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>103</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>105</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>107</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>38</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>109</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -1856,95 +1955,98 @@
       <c r="I6" t="s">
         <v>87</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>290</v>
+      </c>
+      <c r="N6" t="s">
         <v>88</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-9</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>89</v>
       </c>
-      <c r="P6" t="s">
-        <v>91</v>
-      </c>
       <c r="Q6" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" t="s">
         <v>90</v>
       </c>
-      <c r="R6" t="s">
-        <v>91</v>
-      </c>
       <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" t="s">
         <v>92</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>118</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>94</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>95</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>96</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>126</v>
       </c>
-      <c r="Y6" t="s">
-        <v>91</v>
-      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA6" t="s">
         <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC6" t="s">
         <v>99</v>
       </c>
       <c r="AD6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE6" t="s">
         <v>100</v>
       </c>
       <c r="AF6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG6" t="s">
         <v>101</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>32</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>103</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>105</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>36</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>107</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>38</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>109</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1972,101 +2074,104 @@
       <c r="I7" t="s">
         <v>87</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>269</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-9</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>89</v>
       </c>
-      <c r="P7" t="s">
-        <v>91</v>
-      </c>
       <c r="Q7" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" t="s">
         <v>90</v>
       </c>
-      <c r="R7" t="s">
-        <v>91</v>
-      </c>
       <c r="S7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" t="s">
         <v>92</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>118</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>94</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>95</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>96</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>126</v>
       </c>
-      <c r="Y7" t="s">
-        <v>91</v>
-      </c>
       <c r="Z7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA7" t="s">
         <v>98</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC7" t="s">
         <v>99</v>
       </c>
       <c r="AD7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE7" t="s">
         <v>100</v>
       </c>
       <c r="AF7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG7" t="s">
         <v>101</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>32</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>103</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>105</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>36</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>107</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>38</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>109</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>127</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AV7" t="s">
         <v>130</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2094,101 +2199,104 @@
       <c r="I8" t="s">
         <v>87</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N8" t="s">
         <v>88</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-9</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>89</v>
       </c>
-      <c r="P8" t="s">
-        <v>91</v>
-      </c>
       <c r="Q8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8" t="s">
-        <v>91</v>
-      </c>
       <c r="S8" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" t="s">
         <v>92</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>118</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>95</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>96</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>126</v>
       </c>
-      <c r="Y8" t="s">
-        <v>91</v>
-      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA8" t="s">
         <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC8" t="s">
         <v>99</v>
       </c>
       <c r="AD8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE8" t="s">
         <v>100</v>
       </c>
       <c r="AF8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG8" t="s">
         <v>101</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>32</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>103</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>105</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>36</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>107</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>38</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>109</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>133</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" t="s">
         <v>134</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2216,101 +2324,104 @@
       <c r="I9" t="s">
         <v>87</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>271</v>
+      </c>
+      <c r="N9" t="s">
         <v>88</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-9</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>89</v>
       </c>
-      <c r="P9" t="s">
-        <v>91</v>
-      </c>
       <c r="Q9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
-        <v>91</v>
-      </c>
       <c r="S9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" t="s">
         <v>92</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>118</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>94</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>95</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>96</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>126</v>
       </c>
-      <c r="Y9" t="s">
-        <v>91</v>
-      </c>
       <c r="Z9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA9" t="s">
         <v>98</v>
       </c>
       <c r="AB9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC9" t="s">
         <v>99</v>
       </c>
       <c r="AD9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE9" t="s">
         <v>100</v>
       </c>
       <c r="AF9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG9" t="s">
         <v>101</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>103</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>34</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>105</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>36</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>107</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AN9" t="s">
         <v>38</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AO9" t="s">
         <v>109</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
         <v>133</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AV9" t="s">
         <v>134</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -2338,101 +2449,104 @@
       <c r="I10" t="s">
         <v>87</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>291</v>
+      </c>
+      <c r="N10" t="s">
         <v>88</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-9</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>89</v>
       </c>
-      <c r="P10" t="s">
-        <v>91</v>
-      </c>
       <c r="Q10" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" t="s">
         <v>90</v>
       </c>
-      <c r="R10" t="s">
-        <v>91</v>
-      </c>
       <c r="S10" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" t="s">
         <v>92</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>118</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>94</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>95</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>96</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>126</v>
       </c>
-      <c r="Y10" t="s">
-        <v>91</v>
-      </c>
       <c r="Z10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA10" t="s">
         <v>98</v>
       </c>
       <c r="AB10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC10" t="s">
         <v>99</v>
       </c>
       <c r="AD10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE10" t="s">
         <v>100</v>
       </c>
       <c r="AF10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG10" t="s">
         <v>101</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>32</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>103</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>105</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>36</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>107</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>38</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>109</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>127</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" t="s">
         <v>130</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -2460,107 +2574,110 @@
       <c r="I11" t="s">
         <v>87</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>292</v>
+      </c>
+      <c r="N11" t="s">
         <v>88</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-9</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>89</v>
       </c>
-      <c r="P11" t="s">
-        <v>91</v>
-      </c>
       <c r="Q11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" t="s">
         <v>90</v>
       </c>
-      <c r="R11" t="s">
-        <v>91</v>
-      </c>
       <c r="S11" t="s">
+        <v>91</v>
+      </c>
+      <c r="T11" t="s">
         <v>92</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>118</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>94</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>95</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>96</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>126</v>
       </c>
-      <c r="Y11" t="s">
-        <v>91</v>
-      </c>
       <c r="Z11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA11" t="s">
         <v>98</v>
       </c>
       <c r="AB11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC11" t="s">
         <v>99</v>
       </c>
       <c r="AD11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE11" t="s">
         <v>100</v>
       </c>
       <c r="AF11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG11" t="s">
         <v>101</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>32</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>103</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>105</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>36</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>107</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AN11" t="s">
         <v>38</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="AO11" t="s">
         <v>109</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AP11" t="s">
         <v>127</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>139</v>
       </c>
-      <c r="AU11" t="s">
+      <c r="AV11" t="s">
         <v>130</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>137</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -2588,104 +2705,107 @@
       <c r="I12" t="s">
         <v>87</v>
       </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>272</v>
+      </c>
+      <c r="N12" t="s">
         <v>88</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-9</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>89</v>
       </c>
-      <c r="P12" t="s">
-        <v>91</v>
-      </c>
       <c r="Q12" t="s">
+        <v>91</v>
+      </c>
+      <c r="R12" t="s">
         <v>90</v>
       </c>
-      <c r="R12" t="s">
-        <v>91</v>
-      </c>
       <c r="S12" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" t="s">
         <v>92</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>118</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>94</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>95</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>96</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>126</v>
       </c>
-      <c r="Y12" t="s">
-        <v>91</v>
-      </c>
       <c r="Z12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA12" t="s">
         <v>98</v>
       </c>
       <c r="AB12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC12" t="s">
         <v>99</v>
       </c>
       <c r="AD12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE12" t="s">
         <v>100</v>
       </c>
       <c r="AF12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG12" t="s">
         <v>101</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>32</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>103</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>105</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>36</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>107</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>38</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" t="s">
         <v>109</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>127</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>139</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AV12" t="s">
         <v>130</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -2716,87 +2836,87 @@
       <c r="J13" t="s">
         <v>147</v>
       </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>273</v>
+      </c>
+      <c r="N13" t="s">
         <v>88</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>148</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>89</v>
       </c>
-      <c r="P13" t="s">
-        <v>91</v>
-      </c>
       <c r="Q13" t="s">
+        <v>91</v>
+      </c>
+      <c r="R13" t="s">
         <v>90</v>
       </c>
-      <c r="R13" t="s">
-        <v>91</v>
-      </c>
       <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13" t="s">
         <v>92</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>93</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>94</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>95</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>149</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>97</v>
       </c>
-      <c r="Y13" t="s">
-        <v>91</v>
-      </c>
       <c r="Z13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA13" t="s">
         <v>98</v>
       </c>
       <c r="AB13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC13" t="s">
         <v>99</v>
       </c>
       <c r="AD13" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="AE13" t="s">
         <v>150</v>
       </c>
       <c r="AF13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG13" t="s">
         <v>101</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>102</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>103</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>104</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>105</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>106</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>107</v>
       </c>
-      <c r="AO13" t="s">
-        <v>91</v>
-      </c>
       <c r="AP13" t="s">
         <v>91</v>
       </c>
@@ -2825,16 +2945,19 @@
         <v>91</v>
       </c>
       <c r="AY13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>259</v>
       </c>
-      <c r="AZ13" t="s">
-        <v>91</v>
-      </c>
       <c r="BA13" t="s">
         <v>91</v>
       </c>
+      <c r="BB13" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -2865,87 +2988,87 @@
       <c r="J14" t="s">
         <v>147</v>
       </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>274</v>
+      </c>
+      <c r="N14" t="s">
         <v>88</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>148</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>89</v>
       </c>
-      <c r="P14" t="s">
-        <v>91</v>
-      </c>
       <c r="Q14" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" t="s">
         <v>90</v>
       </c>
-      <c r="R14" t="s">
-        <v>91</v>
-      </c>
       <c r="S14" t="s">
+        <v>91</v>
+      </c>
+      <c r="T14" t="s">
         <v>92</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>93</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>94</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>95</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>149</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>97</v>
       </c>
-      <c r="Y14" t="s">
-        <v>91</v>
-      </c>
       <c r="Z14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA14" t="s">
         <v>98</v>
       </c>
       <c r="AB14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC14" t="s">
         <v>99</v>
       </c>
       <c r="AD14" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="AE14" t="s">
         <v>150</v>
       </c>
       <c r="AF14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG14" t="s">
         <v>101</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>102</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>103</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>104</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>105</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>106</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>107</v>
       </c>
-      <c r="AO14" t="s">
-        <v>91</v>
-      </c>
       <c r="AP14" t="s">
         <v>91</v>
       </c>
@@ -2974,16 +3097,19 @@
         <v>91</v>
       </c>
       <c r="AY14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>260</v>
       </c>
-      <c r="AZ14" t="s">
-        <v>91</v>
-      </c>
       <c r="BA14" t="s">
         <v>91</v>
       </c>
+      <c r="BB14" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -3014,96 +3140,96 @@
       <c r="J15" t="s">
         <v>147</v>
       </c>
-      <c r="M15" t="s">
-        <v>91</v>
+      <c r="L15" t="s">
+        <v>275</v>
       </c>
       <c r="N15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" t="s">
         <v>156</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>89</v>
       </c>
-      <c r="P15" t="s">
-        <v>91</v>
-      </c>
       <c r="Q15" t="s">
+        <v>91</v>
+      </c>
+      <c r="R15" t="s">
         <v>157</v>
       </c>
-      <c r="R15" t="s">
-        <v>91</v>
-      </c>
       <c r="S15" t="s">
+        <v>91</v>
+      </c>
+      <c r="T15" t="s">
         <v>158</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>159</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>158</v>
       </c>
-      <c r="V15" t="s">
-        <v>91</v>
-      </c>
       <c r="W15" t="s">
+        <v>91</v>
+      </c>
+      <c r="X15" t="s">
         <v>160</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>159</v>
       </c>
-      <c r="Y15" t="s">
-        <v>91</v>
-      </c>
       <c r="Z15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA15" t="s">
         <v>161</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>162</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>163</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>164</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>165</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>166</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>167</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>168</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>103</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>169</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>105</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>170</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>107</v>
       </c>
-      <c r="AM15" t="s">
-        <v>91</v>
-      </c>
       <c r="AN15" t="s">
         <v>91</v>
       </c>
       <c r="AO15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP15" t="s">
         <v>171</v>
       </c>
-      <c r="AP15" t="s">
-        <v>91</v>
-      </c>
       <c r="AQ15" t="s">
         <v>91</v>
       </c>
@@ -3123,22 +3249,25 @@
         <v>91</v>
       </c>
       <c r="AW15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX15" t="s">
         <v>131</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>172</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>124</v>
       </c>
-      <c r="AZ15" t="s">
-        <v>91</v>
-      </c>
       <c r="BA15" t="s">
         <v>91</v>
       </c>
+      <c r="BB15" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -3169,87 +3298,87 @@
       <c r="J16" t="s">
         <v>147</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>276</v>
+      </c>
+      <c r="N16" t="s">
         <v>88</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>148</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>89</v>
       </c>
-      <c r="P16" t="s">
-        <v>91</v>
-      </c>
       <c r="Q16" t="s">
+        <v>91</v>
+      </c>
+      <c r="R16" t="s">
         <v>90</v>
       </c>
-      <c r="R16" t="s">
-        <v>91</v>
-      </c>
       <c r="S16" t="s">
+        <v>91</v>
+      </c>
+      <c r="T16" t="s">
         <v>92</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>93</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>94</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>95</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>149</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>97</v>
       </c>
-      <c r="Y16" t="s">
-        <v>91</v>
-      </c>
       <c r="Z16" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA16" t="s">
         <v>98</v>
       </c>
       <c r="AB16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC16" t="s">
         <v>99</v>
       </c>
       <c r="AD16" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="AE16" t="s">
         <v>150</v>
       </c>
       <c r="AF16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG16" t="s">
         <v>101</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>102</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>103</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>104</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>105</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>106</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>107</v>
       </c>
-      <c r="AP16" t="s">
-        <v>91</v>
-      </c>
       <c r="AQ16" t="s">
         <v>91</v>
       </c>
@@ -3275,16 +3404,19 @@
         <v>91</v>
       </c>
       <c r="AY16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ16" t="s">
         <v>258</v>
       </c>
-      <c r="AZ16" t="s">
-        <v>91</v>
-      </c>
       <c r="BA16" t="s">
         <v>91</v>
       </c>
+      <c r="BB16" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -3315,87 +3447,87 @@
       <c r="J17" t="s">
         <v>147</v>
       </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>277</v>
+      </c>
+      <c r="N17" t="s">
         <v>88</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>148</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>89</v>
       </c>
-      <c r="P17" t="s">
-        <v>91</v>
-      </c>
       <c r="Q17" t="s">
+        <v>91</v>
+      </c>
+      <c r="R17" t="s">
         <v>90</v>
       </c>
-      <c r="R17" t="s">
-        <v>91</v>
-      </c>
       <c r="S17" t="s">
+        <v>91</v>
+      </c>
+      <c r="T17" t="s">
         <v>92</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>93</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>94</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>95</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>149</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" t="s">
-        <v>91</v>
-      </c>
       <c r="Z17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA17" t="s">
         <v>98</v>
       </c>
       <c r="AB17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC17" t="s">
         <v>99</v>
       </c>
       <c r="AD17" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="AE17" t="s">
         <v>150</v>
       </c>
       <c r="AF17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG17" t="s">
         <v>101</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>102</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>103</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>104</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>105</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>106</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>107</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>91</v>
-      </c>
       <c r="AR17" t="s">
         <v>91</v>
       </c>
@@ -3418,16 +3550,19 @@
         <v>91</v>
       </c>
       <c r="AY17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ17" t="s">
         <v>258</v>
       </c>
-      <c r="AZ17" t="s">
-        <v>91</v>
-      </c>
       <c r="BA17" t="s">
         <v>91</v>
       </c>
+      <c r="BB17" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -3458,96 +3593,96 @@
       <c r="J18" t="s">
         <v>147</v>
       </c>
-      <c r="M18" t="s">
-        <v>91</v>
+      <c r="L18" t="s">
+        <v>278</v>
       </c>
       <c r="N18" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" t="s">
         <v>148</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>89</v>
       </c>
-      <c r="P18" t="s">
-        <v>91</v>
-      </c>
       <c r="Q18" t="s">
+        <v>91</v>
+      </c>
+      <c r="R18" t="s">
         <v>177</v>
       </c>
-      <c r="R18" t="s">
-        <v>91</v>
-      </c>
       <c r="S18" t="s">
+        <v>91</v>
+      </c>
+      <c r="T18" t="s">
         <v>178</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>93</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>179</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>180</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>181</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>182</v>
       </c>
-      <c r="Y18" t="s">
-        <v>91</v>
-      </c>
       <c r="Z18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA18" t="s">
         <v>183</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>184</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>185</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>186</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>187</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>188</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>101</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>189</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>103</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>190</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>105</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>106</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>107</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>108</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AO18" t="s">
         <v>191</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AP18" t="s">
         <v>110</v>
       </c>
-      <c r="AP18" t="s">
-        <v>91</v>
-      </c>
       <c r="AQ18" t="s">
         <v>91</v>
       </c>
@@ -3561,28 +3696,31 @@
         <v>91</v>
       </c>
       <c r="AU18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV18" t="s">
         <v>192</v>
       </c>
-      <c r="AV18" t="s">
+      <c r="AW18" t="s">
         <v>137</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>193</v>
       </c>
-      <c r="AX18" t="s">
-        <v>91</v>
-      </c>
       <c r="AY18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ18" t="s">
         <v>151</v>
       </c>
-      <c r="AZ18" t="s">
-        <v>91</v>
-      </c>
       <c r="BA18" t="s">
         <v>91</v>
       </c>
+      <c r="BB18" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -3613,96 +3751,96 @@
       <c r="J19" t="s">
         <v>147</v>
       </c>
-      <c r="M19" t="s">
-        <v>91</v>
+      <c r="L19" t="s">
+        <v>279</v>
       </c>
       <c r="N19" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" t="s">
         <v>148</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>89</v>
       </c>
-      <c r="P19" t="s">
-        <v>91</v>
-      </c>
       <c r="Q19" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" t="s">
         <v>177</v>
       </c>
-      <c r="R19" t="s">
-        <v>91</v>
-      </c>
       <c r="S19" t="s">
+        <v>91</v>
+      </c>
+      <c r="T19" t="s">
         <v>178</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>93</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>179</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>180</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>181</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>182</v>
       </c>
-      <c r="Y19" t="s">
-        <v>91</v>
-      </c>
       <c r="Z19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA19" t="s">
         <v>183</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>184</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>185</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>186</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>187</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>188</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>101</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>189</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>103</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>190</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>105</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>106</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>107</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>108</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AO19" t="s">
         <v>191</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AP19" t="s">
         <v>110</v>
       </c>
-      <c r="AP19" t="s">
-        <v>91</v>
-      </c>
       <c r="AQ19" t="s">
         <v>91</v>
       </c>
@@ -3716,28 +3854,31 @@
         <v>91</v>
       </c>
       <c r="AU19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV19" t="s">
         <v>192</v>
       </c>
-      <c r="AV19" t="s">
+      <c r="AW19" t="s">
         <v>137</v>
       </c>
-      <c r="AW19" t="s">
+      <c r="AX19" t="s">
         <v>193</v>
       </c>
-      <c r="AX19" t="s">
-        <v>91</v>
-      </c>
       <c r="AY19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ19" t="s">
         <v>151</v>
       </c>
-      <c r="AZ19" t="s">
-        <v>91</v>
-      </c>
       <c r="BA19" t="s">
         <v>91</v>
       </c>
+      <c r="BB19" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -3768,96 +3909,96 @@
       <c r="J20" t="s">
         <v>147</v>
       </c>
-      <c r="M20" t="s">
-        <v>91</v>
+      <c r="L20" t="s">
+        <v>280</v>
       </c>
       <c r="N20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" t="s">
         <v>148</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>89</v>
       </c>
-      <c r="P20" t="s">
-        <v>91</v>
-      </c>
       <c r="Q20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" t="s">
         <v>177</v>
       </c>
-      <c r="R20" t="s">
-        <v>91</v>
-      </c>
       <c r="S20" t="s">
+        <v>91</v>
+      </c>
+      <c r="T20" t="s">
         <v>178</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>93</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>179</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>180</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>181</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>182</v>
       </c>
-      <c r="Y20" t="s">
-        <v>91</v>
-      </c>
       <c r="Z20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA20" t="s">
         <v>183</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>184</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>185</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>186</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>187</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>188</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>101</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>189</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>103</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>190</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>105</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>106</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>107</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>108</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AO20" t="s">
         <v>191</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>110</v>
       </c>
-      <c r="AP20" t="s">
-        <v>91</v>
-      </c>
       <c r="AQ20" t="s">
         <v>91</v>
       </c>
@@ -3871,28 +4012,31 @@
         <v>91</v>
       </c>
       <c r="AU20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV20" t="s">
         <v>192</v>
       </c>
-      <c r="AV20" t="s">
+      <c r="AW20" t="s">
         <v>137</v>
       </c>
-      <c r="AW20" t="s">
+      <c r="AX20" t="s">
         <v>193</v>
       </c>
-      <c r="AX20" t="s">
-        <v>91</v>
-      </c>
       <c r="AY20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ20" t="s">
         <v>151</v>
       </c>
-      <c r="AZ20" t="s">
-        <v>91</v>
-      </c>
       <c r="BA20" t="s">
         <v>91</v>
       </c>
+      <c r="BB20" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -3923,96 +4067,96 @@
       <c r="J21" t="s">
         <v>147</v>
       </c>
-      <c r="M21" t="s">
-        <v>91</v>
+      <c r="L21" t="s">
+        <v>281</v>
       </c>
       <c r="N21" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" t="s">
         <v>148</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>89</v>
       </c>
-      <c r="P21" t="s">
-        <v>91</v>
-      </c>
       <c r="Q21" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" t="s">
         <v>177</v>
       </c>
-      <c r="R21" t="s">
-        <v>91</v>
-      </c>
       <c r="S21" t="s">
+        <v>91</v>
+      </c>
+      <c r="T21" t="s">
         <v>178</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>93</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>179</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>180</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>181</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>182</v>
       </c>
-      <c r="Y21" t="s">
-        <v>91</v>
-      </c>
       <c r="Z21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA21" t="s">
         <v>183</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>184</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>185</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>186</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>187</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>188</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>101</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>189</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AI21" t="s">
         <v>103</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>190</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>105</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AL21" t="s">
         <v>106</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>107</v>
       </c>
-      <c r="AM21" t="s">
+      <c r="AN21" t="s">
         <v>108</v>
       </c>
-      <c r="AN21" t="s">
+      <c r="AO21" t="s">
         <v>191</v>
       </c>
-      <c r="AO21" t="s">
+      <c r="AP21" t="s">
         <v>110</v>
       </c>
-      <c r="AP21" t="s">
-        <v>91</v>
-      </c>
       <c r="AQ21" t="s">
         <v>91</v>
       </c>
@@ -4026,28 +4170,31 @@
         <v>91</v>
       </c>
       <c r="AU21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV21" t="s">
         <v>192</v>
       </c>
-      <c r="AV21" t="s">
+      <c r="AW21" t="s">
         <v>137</v>
       </c>
-      <c r="AW21" t="s">
+      <c r="AX21" t="s">
         <v>193</v>
       </c>
-      <c r="AX21" t="s">
-        <v>91</v>
-      </c>
       <c r="AY21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ21" t="s">
         <v>151</v>
       </c>
-      <c r="AZ21" t="s">
-        <v>91</v>
-      </c>
       <c r="BA21" t="s">
         <v>91</v>
       </c>
+      <c r="BB21" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>197</v>
       </c>
@@ -4078,99 +4225,99 @@
       <c r="J22" t="s">
         <v>147</v>
       </c>
-      <c r="M22" t="s">
-        <v>91</v>
+      <c r="L22" t="s">
+        <v>282</v>
       </c>
       <c r="N22" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" t="s">
         <v>148</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>89</v>
       </c>
-      <c r="P22" t="s">
-        <v>91</v>
-      </c>
       <c r="Q22" t="s">
+        <v>91</v>
+      </c>
+      <c r="R22" t="s">
         <v>201</v>
       </c>
-      <c r="R22" t="s">
-        <v>91</v>
-      </c>
       <c r="S22" t="s">
+        <v>91</v>
+      </c>
+      <c r="T22" t="s">
         <v>202</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>203</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>202</v>
       </c>
-      <c r="V22" t="s">
-        <v>91</v>
-      </c>
       <c r="W22" t="s">
         <v>91</v>
       </c>
       <c r="X22" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y22" t="s">
         <v>203</v>
       </c>
-      <c r="Y22" t="s">
-        <v>91</v>
-      </c>
       <c r="Z22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA22" t="s">
         <v>204</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>205</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>204</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>205</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>204</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>205</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>167</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>206</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AI22" t="s">
         <v>103</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>207</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>105</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AL22" t="s">
         <v>208</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>107</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AN22" t="s">
         <v>209</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AO22" t="s">
         <v>109</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AP22" t="s">
         <v>110</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>137</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>91</v>
-      </c>
       <c r="AR22" t="s">
         <v>91</v>
       </c>
@@ -4181,28 +4328,31 @@
         <v>91</v>
       </c>
       <c r="AU22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV22" t="s">
         <v>192</v>
       </c>
-      <c r="AV22" t="s">
+      <c r="AW22" t="s">
         <v>137</v>
       </c>
-      <c r="AW22" t="s">
+      <c r="AX22" t="s">
         <v>193</v>
       </c>
-      <c r="AX22" t="s">
+      <c r="AY22" t="s">
         <v>172</v>
       </c>
-      <c r="AY22" t="s">
-        <v>91</v>
-      </c>
       <c r="AZ22" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA22" t="s">
         <v>210</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BB22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>197</v>
       </c>
@@ -4233,99 +4383,99 @@
       <c r="J23" t="s">
         <v>147</v>
       </c>
-      <c r="M23" t="s">
-        <v>91</v>
+      <c r="L23" t="s">
+        <v>283</v>
       </c>
       <c r="N23" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" t="s">
         <v>148</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>89</v>
       </c>
-      <c r="P23" t="s">
-        <v>91</v>
-      </c>
       <c r="Q23" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" t="s">
         <v>201</v>
       </c>
-      <c r="R23" t="s">
-        <v>91</v>
-      </c>
       <c r="S23" t="s">
+        <v>91</v>
+      </c>
+      <c r="T23" t="s">
         <v>202</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>203</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>202</v>
       </c>
-      <c r="V23" t="s">
-        <v>91</v>
-      </c>
       <c r="W23" t="s">
         <v>91</v>
       </c>
       <c r="X23" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y23" t="s">
         <v>203</v>
       </c>
-      <c r="Y23" t="s">
-        <v>91</v>
-      </c>
       <c r="Z23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA23" t="s">
         <v>204</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>205</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>204</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>205</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>204</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>205</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>167</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>206</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>103</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AJ23" t="s">
         <v>207</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AK23" t="s">
         <v>105</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
         <v>208</v>
       </c>
-      <c r="AL23" t="s">
+      <c r="AM23" t="s">
         <v>107</v>
       </c>
-      <c r="AM23" t="s">
+      <c r="AN23" t="s">
         <v>209</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AO23" t="s">
         <v>109</v>
       </c>
-      <c r="AO23" t="s">
+      <c r="AP23" t="s">
         <v>110</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>137</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>91</v>
-      </c>
       <c r="AR23" t="s">
         <v>91</v>
       </c>
@@ -4336,28 +4486,31 @@
         <v>91</v>
       </c>
       <c r="AU23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV23" t="s">
         <v>192</v>
       </c>
-      <c r="AV23" t="s">
+      <c r="AW23" t="s">
         <v>137</v>
       </c>
-      <c r="AW23" t="s">
+      <c r="AX23" t="s">
         <v>193</v>
       </c>
-      <c r="AX23" t="s">
+      <c r="AY23" t="s">
         <v>172</v>
       </c>
-      <c r="AY23" t="s">
-        <v>91</v>
-      </c>
       <c r="AZ23" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA23" t="s">
         <v>210</v>
       </c>
-      <c r="BA23" t="s">
+      <c r="BB23" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>197</v>
       </c>
@@ -4388,99 +4541,99 @@
       <c r="J24" t="s">
         <v>147</v>
       </c>
-      <c r="M24" t="s">
-        <v>91</v>
+      <c r="L24" t="s">
+        <v>284</v>
       </c>
       <c r="N24" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" t="s">
         <v>148</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>89</v>
       </c>
-      <c r="P24" t="s">
-        <v>91</v>
-      </c>
       <c r="Q24" t="s">
+        <v>91</v>
+      </c>
+      <c r="R24" t="s">
         <v>201</v>
       </c>
-      <c r="R24" t="s">
-        <v>91</v>
-      </c>
       <c r="S24" t="s">
+        <v>91</v>
+      </c>
+      <c r="T24" t="s">
         <v>202</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>203</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>202</v>
       </c>
-      <c r="V24" t="s">
-        <v>91</v>
-      </c>
       <c r="W24" t="s">
         <v>91</v>
       </c>
       <c r="X24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y24" t="s">
         <v>203</v>
       </c>
-      <c r="Y24" t="s">
-        <v>91</v>
-      </c>
       <c r="Z24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA24" t="s">
         <v>204</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>205</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>204</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>205</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>204</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>205</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>167</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>206</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>103</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>207</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>105</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>208</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>107</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AN24" t="s">
         <v>209</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AO24" t="s">
         <v>109</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AP24" t="s">
         <v>110</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>137</v>
       </c>
-      <c r="AQ24" t="s">
-        <v>91</v>
-      </c>
       <c r="AR24" t="s">
         <v>91</v>
       </c>
@@ -4491,28 +4644,31 @@
         <v>91</v>
       </c>
       <c r="AU24" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV24" t="s">
         <v>192</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="AW24" t="s">
         <v>137</v>
       </c>
-      <c r="AW24" t="s">
+      <c r="AX24" t="s">
         <v>193</v>
       </c>
-      <c r="AX24" t="s">
+      <c r="AY24" t="s">
         <v>172</v>
       </c>
-      <c r="AY24" t="s">
-        <v>91</v>
-      </c>
       <c r="AZ24" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA24" t="s">
         <v>210</v>
       </c>
-      <c r="BA24" t="s">
+      <c r="BB24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -4543,99 +4699,99 @@
       <c r="J25" t="s">
         <v>147</v>
       </c>
-      <c r="M25" t="s">
-        <v>91</v>
+      <c r="L25" t="s">
+        <v>285</v>
       </c>
       <c r="N25" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" t="s">
         <v>148</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>89</v>
       </c>
-      <c r="P25" t="s">
-        <v>91</v>
-      </c>
       <c r="Q25" t="s">
+        <v>91</v>
+      </c>
+      <c r="R25" t="s">
         <v>201</v>
       </c>
-      <c r="R25" t="s">
-        <v>91</v>
-      </c>
       <c r="S25" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25" t="s">
         <v>202</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>203</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>202</v>
       </c>
-      <c r="V25" t="s">
-        <v>91</v>
-      </c>
       <c r="W25" t="s">
         <v>91</v>
       </c>
       <c r="X25" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y25" t="s">
         <v>203</v>
       </c>
-      <c r="Y25" t="s">
-        <v>91</v>
-      </c>
       <c r="Z25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA25" t="s">
         <v>204</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AB25" t="s">
         <v>205</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>204</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>205</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>204</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>205</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>167</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>206</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AI25" t="s">
         <v>103</v>
       </c>
-      <c r="AI25" t="s">
+      <c r="AJ25" t="s">
         <v>207</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AK25" t="s">
         <v>105</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AL25" t="s">
         <v>208</v>
       </c>
-      <c r="AL25" t="s">
+      <c r="AM25" t="s">
         <v>107</v>
       </c>
-      <c r="AM25" t="s">
+      <c r="AN25" t="s">
         <v>209</v>
       </c>
-      <c r="AN25" t="s">
+      <c r="AO25" t="s">
         <v>109</v>
       </c>
-      <c r="AO25" t="s">
+      <c r="AP25" t="s">
         <v>110</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
         <v>137</v>
       </c>
-      <c r="AQ25" t="s">
-        <v>91</v>
-      </c>
       <c r="AR25" t="s">
         <v>91</v>
       </c>
@@ -4646,28 +4802,31 @@
         <v>91</v>
       </c>
       <c r="AU25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV25" t="s">
         <v>192</v>
       </c>
-      <c r="AV25" t="s">
+      <c r="AW25" t="s">
         <v>137</v>
       </c>
-      <c r="AW25" t="s">
+      <c r="AX25" t="s">
         <v>193</v>
       </c>
-      <c r="AX25" t="s">
+      <c r="AY25" t="s">
         <v>172</v>
       </c>
-      <c r="AY25" t="s">
-        <v>91</v>
-      </c>
       <c r="AZ25" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA25" t="s">
         <v>210</v>
       </c>
-      <c r="BA25" t="s">
+      <c r="BB25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -4698,54 +4857,54 @@
       <c r="J26" t="s">
         <v>219</v>
       </c>
-      <c r="M26" t="s">
-        <v>91</v>
+      <c r="L26" t="s">
+        <v>286</v>
       </c>
       <c r="N26" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" t="s">
         <v>220</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>89</v>
       </c>
-      <c r="P26" t="s">
-        <v>91</v>
-      </c>
       <c r="Q26" t="s">
+        <v>91</v>
+      </c>
+      <c r="R26" t="s">
         <v>221</v>
       </c>
-      <c r="R26" t="s">
-        <v>91</v>
-      </c>
       <c r="S26" t="s">
+        <v>91</v>
+      </c>
+      <c r="T26" t="s">
         <v>222</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>223</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>222</v>
       </c>
-      <c r="V26" t="s">
-        <v>91</v>
-      </c>
       <c r="W26" t="s">
         <v>91</v>
       </c>
       <c r="X26" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y26" t="s">
         <v>223</v>
       </c>
-      <c r="Y26" t="s">
-        <v>91</v>
-      </c>
       <c r="Z26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA26" t="s">
         <v>224</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AB26" t="s">
         <v>225</v>
       </c>
-      <c r="AB26" t="s">
-        <v>91</v>
-      </c>
       <c r="AC26" t="s">
         <v>91</v>
       </c>
@@ -4756,41 +4915,41 @@
         <v>91</v>
       </c>
       <c r="AF26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG26" t="s">
         <v>167</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>189</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
         <v>103</v>
       </c>
-      <c r="AI26" t="s">
+      <c r="AJ26" t="s">
         <v>226</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AK26" t="s">
         <v>227</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AL26" t="s">
         <v>228</v>
       </c>
-      <c r="AL26" t="s">
+      <c r="AM26" t="s">
         <v>107</v>
       </c>
-      <c r="AM26" t="s">
-        <v>91</v>
-      </c>
       <c r="AN26" t="s">
         <v>91</v>
       </c>
       <c r="AO26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP26" t="s">
         <v>229</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>230</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>91</v>
-      </c>
       <c r="AR26" t="s">
         <v>91</v>
       </c>
@@ -4801,28 +4960,31 @@
         <v>91</v>
       </c>
       <c r="AU26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV26" t="s">
         <v>231</v>
       </c>
-      <c r="AV26" t="s">
+      <c r="AW26" t="s">
         <v>137</v>
       </c>
-      <c r="AW26" t="s">
-        <v>91</v>
-      </c>
       <c r="AX26" t="s">
         <v>91</v>
       </c>
       <c r="AY26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ26" t="s">
         <v>232</v>
       </c>
-      <c r="AZ26" t="s">
-        <v>91</v>
-      </c>
       <c r="BA26" t="s">
         <v>91</v>
       </c>
+      <c r="BB26" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -4853,111 +5015,111 @@
       <c r="J27" t="s">
         <v>236</v>
       </c>
-      <c r="M27" t="s">
-        <v>91</v>
+      <c r="L27" t="s">
+        <v>287</v>
       </c>
       <c r="N27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" t="s">
         <v>237</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>89</v>
       </c>
-      <c r="P27" t="s">
-        <v>91</v>
-      </c>
       <c r="Q27" t="s">
+        <v>91</v>
+      </c>
+      <c r="R27" t="s">
         <v>261</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>262</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>238</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>239</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="V27" t="s">
-        <v>91</v>
-      </c>
       <c r="W27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" t="s">
         <v>241</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>242</v>
       </c>
-      <c r="Y27" t="s">
-        <v>91</v>
-      </c>
       <c r="Z27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA27" t="s">
         <v>243</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>244</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>245</v>
       </c>
-      <c r="AC27" t="s">
-        <v>91</v>
-      </c>
       <c r="AD27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE27" t="s">
         <v>246</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>247</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>167</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>248</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>103</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>249</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AK27" t="s">
         <v>105</v>
       </c>
-      <c r="AK27" t="s">
+      <c r="AL27" t="s">
         <v>250</v>
       </c>
-      <c r="AL27" t="s">
+      <c r="AM27" t="s">
         <v>251</v>
       </c>
-      <c r="AM27" t="s">
-        <v>91</v>
-      </c>
       <c r="AN27" t="s">
         <v>91</v>
       </c>
       <c r="AO27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP27" t="s">
         <v>252</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AQ27" t="s">
         <v>230</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AR27" t="s">
         <v>253</v>
       </c>
-      <c r="AR27" t="s">
+      <c r="AS27" t="s">
         <v>254</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AT27" t="s">
         <v>255</v>
       </c>
-      <c r="AT27" t="s">
+      <c r="AU27" t="s">
         <v>175</v>
       </c>
-      <c r="AU27" t="s">
-        <v>91</v>
-      </c>
       <c r="AV27" t="s">
         <v>91</v>
       </c>
@@ -4976,8 +5138,11 @@
       <c r="BA27" t="s">
         <v>91</v>
       </c>
+      <c r="BB27" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -5008,111 +5173,111 @@
       <c r="J28" t="s">
         <v>236</v>
       </c>
-      <c r="M28" t="s">
-        <v>91</v>
+      <c r="L28" t="s">
+        <v>288</v>
       </c>
       <c r="N28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" t="s">
         <v>237</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>89</v>
       </c>
-      <c r="P28" t="s">
-        <v>91</v>
-      </c>
       <c r="Q28" t="s">
+        <v>91</v>
+      </c>
+      <c r="R28" t="s">
         <v>261</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>262</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>238</v>
       </c>
-      <c r="T28" t="s">
+      <c r="U28" t="s">
         <v>239</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="V28" t="s">
-        <v>91</v>
-      </c>
       <c r="W28" t="s">
+        <v>91</v>
+      </c>
+      <c r="X28" t="s">
         <v>241</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>242</v>
       </c>
-      <c r="Y28" t="s">
-        <v>91</v>
-      </c>
       <c r="Z28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA28" t="s">
         <v>243</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>244</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>245</v>
       </c>
-      <c r="AC28" t="s">
-        <v>91</v>
-      </c>
       <c r="AD28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE28" t="s">
         <v>246</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>247</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>167</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>248</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
         <v>103</v>
       </c>
-      <c r="AI28" t="s">
+      <c r="AJ28" t="s">
         <v>249</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AK28" t="s">
         <v>105</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AL28" t="s">
         <v>250</v>
       </c>
-      <c r="AL28" t="s">
+      <c r="AM28" t="s">
         <v>251</v>
       </c>
-      <c r="AM28" t="s">
-        <v>91</v>
-      </c>
       <c r="AN28" t="s">
         <v>91</v>
       </c>
       <c r="AO28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP28" t="s">
         <v>252</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AQ28" t="s">
         <v>230</v>
       </c>
-      <c r="AQ28" t="s">
+      <c r="AR28" t="s">
         <v>253</v>
       </c>
-      <c r="AR28" t="s">
+      <c r="AS28" t="s">
         <v>254</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AT28" t="s">
         <v>255</v>
       </c>
-      <c r="AT28" t="s">
+      <c r="AU28" t="s">
         <v>175</v>
       </c>
-      <c r="AU28" t="s">
-        <v>91</v>
-      </c>
       <c r="AV28" t="s">
         <v>91</v>
       </c>
@@ -5129,6 +5294,9 @@
         <v>91</v>
       </c>
       <c r="BA28" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB28" t="s">
         <v>91</v>
       </c>
     </row>

--- a/product_data/processing_metadata/C2/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C2/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{32650595-DAB2-49EA-99DA-A667E6C4D4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47C2157-2EC5-43DE-A8AA-AE3B43094D4B}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{32650595-DAB2-49EA-99DA-A667E6C4D4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{604A50BF-5C02-472B-83C1-AB3A42DE48D1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A15623BF-58FA-4D83-A44E-D21F691BB9A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -735,9 +735,6 @@
     <t>Downcast data only</t>
   </si>
   <si>
-    <t>JGOFS</t>
-  </si>
-  <si>
     <t>John Morrison</t>
   </si>
   <si>
@@ -913,6 +910,9 @@
   </si>
   <si>
     <t>09AR20120105_prof</t>
+  </si>
+  <si>
+    <t>BCO-DMO</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:BB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,7 +1310,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
@@ -1468,7 +1468,7 @@
         <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N2" t="s">
         <v>88</v>
@@ -1546,7 +1546,7 @@
         <v>107</v>
       </c>
       <c r="AZ2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
@@ -1578,7 +1578,7 @@
         <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N3" t="s">
         <v>88</v>
@@ -1656,7 +1656,7 @@
         <v>107</v>
       </c>
       <c r="AZ3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.35">
@@ -1691,7 +1691,7 @@
         <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N4" t="s">
         <v>91</v>
@@ -1837,7 +1837,7 @@
         <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N5" t="s">
         <v>88</v>
@@ -1956,7 +1956,7 @@
         <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N6" t="s">
         <v>88</v>
@@ -2075,7 +2075,7 @@
         <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N7" t="s">
         <v>88</v>
@@ -2200,7 +2200,7 @@
         <v>87</v>
       </c>
       <c r="L8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N8" t="s">
         <v>88</v>
@@ -2325,7 +2325,7 @@
         <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N9" t="s">
         <v>88</v>
@@ -2450,7 +2450,7 @@
         <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N10" t="s">
         <v>88</v>
@@ -2575,7 +2575,7 @@
         <v>87</v>
       </c>
       <c r="L11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N11" t="s">
         <v>88</v>
@@ -2706,7 +2706,7 @@
         <v>87</v>
       </c>
       <c r="L12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N12" t="s">
         <v>88</v>
@@ -2813,7 +2813,7 @@
         <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
         <v>144</v>
@@ -2837,7 +2837,7 @@
         <v>147</v>
       </c>
       <c r="L13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N13" t="s">
         <v>88</v>
@@ -2948,7 +2948,7 @@
         <v>91</v>
       </c>
       <c r="AZ13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BA13" t="s">
         <v>91</v>
@@ -2989,7 +2989,7 @@
         <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N14" t="s">
         <v>88</v>
@@ -3100,7 +3100,7 @@
         <v>91</v>
       </c>
       <c r="AZ14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BA14" t="s">
         <v>91</v>
@@ -3141,7 +3141,7 @@
         <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N15" t="s">
         <v>91</v>
@@ -3299,7 +3299,7 @@
         <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N16" t="s">
         <v>88</v>
@@ -3407,7 +3407,7 @@
         <v>91</v>
       </c>
       <c r="AZ16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BA16" t="s">
         <v>91</v>
@@ -3448,7 +3448,7 @@
         <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N17" t="s">
         <v>88</v>
@@ -3553,7 +3553,7 @@
         <v>91</v>
       </c>
       <c r="AZ17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BA17" t="s">
         <v>91</v>
@@ -3594,7 +3594,7 @@
         <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N18" t="s">
         <v>91</v>
@@ -3752,7 +3752,7 @@
         <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N19" t="s">
         <v>91</v>
@@ -3910,7 +3910,7 @@
         <v>147</v>
       </c>
       <c r="L20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N20" t="s">
         <v>91</v>
@@ -4068,7 +4068,7 @@
         <v>147</v>
       </c>
       <c r="L21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N21" t="s">
         <v>91</v>
@@ -4226,7 +4226,7 @@
         <v>147</v>
       </c>
       <c r="L22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N22" t="s">
         <v>91</v>
@@ -4384,7 +4384,7 @@
         <v>147</v>
       </c>
       <c r="L23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N23" t="s">
         <v>91</v>
@@ -4542,7 +4542,7 @@
         <v>147</v>
       </c>
       <c r="L24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N24" t="s">
         <v>91</v>
@@ -4700,7 +4700,7 @@
         <v>147</v>
       </c>
       <c r="L25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N25" t="s">
         <v>91</v>
@@ -4858,7 +4858,7 @@
         <v>219</v>
       </c>
       <c r="L26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N26" t="s">
         <v>91</v>
@@ -4992,10 +4992,10 @@
         <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -5007,22 +5007,22 @@
         <v>154</v>
       </c>
       <c r="H27" t="s">
+        <v>233</v>
+      </c>
+      <c r="I27" t="s">
         <v>234</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>235</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
+        <v>286</v>
+      </c>
+      <c r="N27" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" t="s">
         <v>236</v>
-      </c>
-      <c r="L27" t="s">
-        <v>287</v>
-      </c>
-      <c r="N27" t="s">
-        <v>91</v>
-      </c>
-      <c r="O27" t="s">
-        <v>237</v>
       </c>
       <c r="P27" t="s">
         <v>89</v>
@@ -5031,91 +5031,91 @@
         <v>91</v>
       </c>
       <c r="R27" t="s">
+        <v>260</v>
+      </c>
+      <c r="S27" t="s">
         <v>261</v>
       </c>
-      <c r="S27" t="s">
-        <v>262</v>
-      </c>
       <c r="T27" t="s">
+        <v>237</v>
+      </c>
+      <c r="U27" t="s">
         <v>238</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>239</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" t="s">
-        <v>91</v>
-      </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>241</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA27" t="s">
         <v>242</v>
       </c>
-      <c r="Z27" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA27" t="s">
+      <c r="AB27" t="s">
         <v>243</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AC27" t="s">
         <v>244</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE27" t="s">
         <v>245</v>
       </c>
-      <c r="AD27" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>246</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>247</v>
       </c>
       <c r="AG27" t="s">
         <v>167</v>
       </c>
       <c r="AH27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AI27" t="s">
         <v>103</v>
       </c>
       <c r="AJ27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AK27" t="s">
         <v>105</v>
       </c>
       <c r="AL27" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM27" t="s">
         <v>250</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AN27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP27" t="s">
         <v>251</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>252</v>
       </c>
       <c r="AQ27" t="s">
         <v>230</v>
       </c>
       <c r="AR27" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS27" t="s">
         <v>253</v>
       </c>
-      <c r="AS27" t="s">
+      <c r="AT27" t="s">
         <v>254</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>255</v>
       </c>
       <c r="AU27" t="s">
         <v>175</v>
@@ -5150,10 +5150,10 @@
         <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="E28" t="s">
         <v>79</v>
@@ -5165,22 +5165,22 @@
         <v>154</v>
       </c>
       <c r="H28" t="s">
+        <v>233</v>
+      </c>
+      <c r="I28" t="s">
         <v>234</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>235</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
+        <v>287</v>
+      </c>
+      <c r="N28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" t="s">
         <v>236</v>
-      </c>
-      <c r="L28" t="s">
-        <v>288</v>
-      </c>
-      <c r="N28" t="s">
-        <v>91</v>
-      </c>
-      <c r="O28" t="s">
-        <v>237</v>
       </c>
       <c r="P28" t="s">
         <v>89</v>
@@ -5189,91 +5189,91 @@
         <v>91</v>
       </c>
       <c r="R28" t="s">
+        <v>260</v>
+      </c>
+      <c r="S28" t="s">
         <v>261</v>
       </c>
-      <c r="S28" t="s">
-        <v>262</v>
-      </c>
       <c r="T28" t="s">
+        <v>237</v>
+      </c>
+      <c r="U28" t="s">
         <v>238</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>239</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
+        <v>91</v>
+      </c>
+      <c r="X28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" t="s">
-        <v>91</v>
-      </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>241</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA28" t="s">
         <v>242</v>
       </c>
-      <c r="Z28" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>243</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>244</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE28" t="s">
         <v>245</v>
       </c>
-      <c r="AD28" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>246</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>247</v>
       </c>
       <c r="AG28" t="s">
         <v>167</v>
       </c>
       <c r="AH28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AI28" t="s">
         <v>103</v>
       </c>
       <c r="AJ28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AK28" t="s">
         <v>105</v>
       </c>
       <c r="AL28" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM28" t="s">
         <v>250</v>
       </c>
-      <c r="AM28" t="s">
+      <c r="AN28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP28" t="s">
         <v>251</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>252</v>
       </c>
       <c r="AQ28" t="s">
         <v>230</v>
       </c>
       <c r="AR28" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS28" t="s">
         <v>253</v>
       </c>
-      <c r="AS28" t="s">
+      <c r="AT28" t="s">
         <v>254</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>255</v>
       </c>
       <c r="AU28" t="s">
         <v>175</v>
